--- a/Jogos_do_Dia/2023-10-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,6 +654,145 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Vila Nova</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_do_Dia/2023-10-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.6</v>
@@ -718,7 +718,7 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="T2" t="n">
         <v>1.4</v>
